--- a/vacant spaces.xlsx
+++ b/vacant spaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\UF-DecisionMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E2C6AC-0A87-408E-A3B1-7D9869FBD5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE80B1BE-8F2C-43AB-AD7A-7BC6BFB63A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97D7FF61-E7FE-40FC-A08C-4098C75490E0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
   <si>
     <t>V1</t>
   </si>
@@ -121,10 +121,43 @@
     <t>size</t>
   </si>
   <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t>solar</t>
+    <t>location_in building</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>basement</t>
+  </si>
+  <si>
+    <t>intermediate</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -485,10 +518,13 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -507,7 +543,7 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -526,11 +562,11 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -549,11 +585,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -572,11 +608,11 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -595,11 +631,11 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -618,11 +654,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -641,11 +677,11 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -664,11 +700,11 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -687,11 +723,11 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -710,11 +746,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -733,11 +769,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -756,11 +792,11 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -779,11 +815,11 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
@@ -802,11 +838,11 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
@@ -825,11 +861,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -848,11 +884,11 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
@@ -871,11 +907,11 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>

--- a/vacant spaces.xlsx
+++ b/vacant spaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\UF-DecisionMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE80B1BE-8F2C-43AB-AD7A-7BC6BFB63A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335B31BC-96E6-4BDA-A264-244D64EBE7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{97D7FF61-E7FE-40FC-A08C-4098C75490E0}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>building</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>location_in building</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>size_real</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,13 +537,13 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -560,13 +560,13 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -583,13 +583,13 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -606,13 +606,13 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -629,13 +629,13 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -652,13 +652,13 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -675,13 +675,13 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>600</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -698,13 +698,13 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -744,13 +744,13 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -790,13 +790,13 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -813,13 +813,13 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>600</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
@@ -836,13 +836,13 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
@@ -859,13 +859,13 @@
         <v>20</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -882,13 +882,13 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
@@ -905,13 +905,13 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>
